--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2248824.334713718</v>
+        <v>2246261.693988593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287932</v>
+        <v>9964927.035287946</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717223</v>
+        <v>430763.7823717211</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>43.31175043371119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>190.5412609087631</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>314.6536463267108</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601516</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>37.83808333974875</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802967</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402134</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>126.7477612906582</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522437</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081949</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374745</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>59.75887110882652</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S13" t="n">
         <v>181.3384883584589</v>
@@ -1582,13 +1582,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>41.60617040426041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>141.4740238230489</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.119387955709733</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.49737834569066</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
-        <v>89.97676987683262</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890396</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.65078087823102</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>70.61605408297919</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440895</v>
@@ -2290,7 +2290,7 @@
         <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.69571003754607</v>
       </c>
       <c r="G25" t="n">
-        <v>74.18033439554017</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
         <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>20.38088071884529</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
-        <v>6.999582804457149</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>26.36085357346062</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>38.03682829123761</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3244,16 +3244,16 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>248.2803633896407</v>
       </c>
       <c r="W34" t="n">
-        <v>184.1058368358746</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3281,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045438</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>111.3598553131507</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>74.18033439553386</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>133.3263257251783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5967098577667</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045436</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>98.13825310308874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>132.8992301078205</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
         <v>188.3907690366107</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>115.0648329620359</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
         <v>286.1854515484204</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>55.9195818240505</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.546485980902</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>535.6630640965725</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>246.4894537511405</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>246.4894537511405</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>246.4894537511405</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.2778626358874</v>
+        <v>1526.106027515565</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1526.106027515565</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1167.840328908815</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>782.0520763105703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1526.106027515565</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.136308669149</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.136308669149</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.136308669149</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>745.4192606141722</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>327.4554525123591</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224073</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1894.539591564833</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628416</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628416</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.5727309569547</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160681</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K11" t="n">
         <v>842.9746074384032</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294972</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.29847123401</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151117</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
@@ -5112,34 +5112,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149664</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L12" t="n">
-        <v>689.553244632977</v>
+        <v>526.9340838249478</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.571598885105</v>
+        <v>1118.952438077076</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.667562284443</v>
+        <v>1741.048401476413</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.422008959557</v>
+        <v>676.7441797778403</v>
       </c>
       <c r="C13" t="n">
-        <v>930.48582603165</v>
+        <v>676.7441797778403</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193143</v>
+        <v>526.6275403655045</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369212</v>
+        <v>378.7144467831114</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5661455390108</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135897</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H13" t="n">
         <v>176.4792337520201</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411611</v>
@@ -5212,37 +5212,37 @@
         <v>1654.146473931027</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U13" t="n">
-        <v>2026.563526789009</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1771.879038583122</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213704</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778403</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890958</v>
@@ -5264,19 +5264,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160681</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K14" t="n">
         <v>842.9746074384032</v>
@@ -5285,22 +5285,22 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
         <v>4606.950144347201</v>
@@ -5309,19 +5309,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034533</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668126</v>
+        <v>425.396123289489</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310565</v>
+        <v>916.128456133241</v>
       </c>
       <c r="M15" t="n">
-        <v>1512.132872870353</v>
+        <v>1508.146810385369</v>
       </c>
       <c r="N15" t="n">
-        <v>2134.22883626969</v>
+        <v>2130.242773784707</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.7744972332207</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C16" t="n">
-        <v>545.8383143053138</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="D16" t="n">
-        <v>545.8383143053138</v>
+        <v>243.9022376488585</v>
       </c>
       <c r="E16" t="n">
-        <v>402.9352599385978</v>
+        <v>95.98914406646534</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411611</v>
@@ -5458,28 +5458,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T16" t="n">
-        <v>2178.382964033129</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U16" t="n">
-        <v>1889.306750347856</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V16" t="n">
-        <v>1634.622262141969</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W16" t="n">
-        <v>1345.205092105008</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X16" t="n">
-        <v>1117.215541206991</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y16" t="n">
-        <v>896.4229620634604</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160684</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K17" t="n">
         <v>842.9746074384032</v>
@@ -5522,25 +5522,25 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151117</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5586,28 +5586,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160704</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149664</v>
+        <v>429.3821857744725</v>
       </c>
       <c r="L18" t="n">
-        <v>915.0894235587184</v>
+        <v>920.1145186182245</v>
       </c>
       <c r="M18" t="n">
-        <v>1507.107777810847</v>
+        <v>1512.132872870353</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.203741210184</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.9184063975744</v>
+        <v>744.6035248193383</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9822234696675</v>
+        <v>575.6673418914314</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8655840573317</v>
+        <v>425.5507024790957</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9524904749386</v>
+        <v>277.6376088967025</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
         <v>172.8304710411611</v>
@@ -5698,25 +5698,25 @@
         <v>2429.412499335697</v>
       </c>
       <c r="S19" t="n">
-        <v>2429.412499335697</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.526873197482</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.450659512209</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.766171306322</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.349001269361</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.359450371344</v>
+        <v>965.3961039628684</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.566871227814</v>
+        <v>744.6035248193383</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5759,13 +5759,13 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P20" t="n">
         <v>4202.751434297605</v>
@@ -5777,7 +5777,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5826,28 +5826,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>242.535362477976</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413352</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.776437885087</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.464883050337</v>
+        <v>1349.513712062324</v>
       </c>
       <c r="N21" t="n">
-        <v>1321.464883050337</v>
+        <v>1971.609675461661</v>
       </c>
       <c r="O21" t="n">
-        <v>1868.341358050532</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P21" t="n">
-        <v>2287.924876476608</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q21" t="n">
         <v>2518.486150461856</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.7744972332207</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="C22" t="n">
-        <v>545.8383143053138</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="D22" t="n">
-        <v>395.7216748929781</v>
+        <v>526.6275403655068</v>
       </c>
       <c r="E22" t="n">
-        <v>247.8085813105849</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="F22" t="n">
-        <v>247.8085813105849</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G22" t="n">
-        <v>247.8085813105849</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H22" t="n">
         <v>176.4792337520201</v>
@@ -5938,22 +5938,22 @@
         <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>2178.382964033129</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1889.306750347856</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1634.622262141969</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1345.205092105008</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>1117.215541206991</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>896.4229620634604</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294972</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N23" t="n">
         <v>2971.583449151117</v>
@@ -6063,22 +6063,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>107.3505653988713</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>107.3505653988713</v>
+        <v>163.4947075553144</v>
       </c>
       <c r="L24" t="n">
-        <v>107.3505653988713</v>
+        <v>654.2270403990664</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196509997</v>
+        <v>1246.245394651195</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050337</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="O24" t="n">
         <v>1868.341358050532</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.633842274719</v>
+        <v>749.7802031534898</v>
       </c>
       <c r="C25" t="n">
-        <v>613.6976593468121</v>
+        <v>580.8440202255829</v>
       </c>
       <c r="D25" t="n">
-        <v>463.5810199344763</v>
+        <v>580.8440202255829</v>
       </c>
       <c r="E25" t="n">
-        <v>315.6679263520832</v>
+        <v>432.9309266431898</v>
       </c>
       <c r="F25" t="n">
-        <v>168.7779788541729</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>2246.242309074627</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.166095389354</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.481607183467</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.064437146506</v>
+        <v>1380.210798025277</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.074886248489</v>
+        <v>1152.22124712726</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.2823071049587</v>
+        <v>931.4286679837295</v>
       </c>
     </row>
     <row r="26">
@@ -6221,37 +6221,37 @@
         <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K26" t="n">
         <v>842.9746074384032</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294972</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6297,28 +6297,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612973</v>
+        <v>94.88738072612971</v>
       </c>
       <c r="J27" t="n">
-        <v>94.88738072612973</v>
+        <v>242.5353624779759</v>
       </c>
       <c r="K27" t="n">
-        <v>94.88738072612973</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L27" t="n">
-        <v>107.3505653988713</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196509997</v>
+        <v>1118.952438077076</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050337</v>
+        <v>1741.048401476413</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050532</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P27" t="n">
         <v>2287.924876476608</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6513892319105</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7382956495174</v>
+        <v>197.0659819528739</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160704</v>
+        <v>197.0659819528739</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J28" t="n">
         <v>172.8304710411611</v>
@@ -6412,22 +6412,22 @@
         <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6473,7 +6473,7 @@
         <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
         <v>3654.445485610256</v>
@@ -6488,7 +6488,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6537,16 +6537,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.535362477976</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413352</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885087</v>
+        <v>526.9340838249478</v>
       </c>
       <c r="M30" t="n">
         <v>1118.952438077076</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.991460657679</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6701,13 +6701,13 @@
         <v>373.3442236507205</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
         <v>2971.583449151116</v>
@@ -6725,7 +6725,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6783,19 +6783,19 @@
         <v>573.0441050413352</v>
       </c>
       <c r="L33" t="n">
-        <v>1063.776437885087</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="M33" t="n">
-        <v>1063.776437885087</v>
+        <v>1165.062459293464</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.872401284424</v>
+        <v>1741.048401476413</v>
       </c>
       <c r="O33" t="n">
-        <v>2232.74887628462</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P33" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q33" t="n">
         <v>2518.486150461856</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.5769285337227</v>
+        <v>719.7845364488978</v>
       </c>
       <c r="C34" t="n">
-        <v>680.6407456058158</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="D34" t="n">
-        <v>530.5241061934801</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="E34" t="n">
-        <v>382.6110126110869</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F34" t="n">
-        <v>235.7210651131766</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G34" t="n">
         <v>235.7210651131766</v>
@@ -6880,28 +6880,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1920.657503364806</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1665.973015158919</v>
+        <v>1418.839722214116</v>
       </c>
       <c r="W34" t="n">
-        <v>1480.00752340551</v>
+        <v>1129.422552177155</v>
       </c>
       <c r="X34" t="n">
-        <v>1252.017972507492</v>
+        <v>901.4330012791376</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.225393363962</v>
+        <v>901.4330012791376</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,40 +6923,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127621</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5353624779755</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>573.0441050413342</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L36" t="n">
-        <v>1063.776437885085</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M36" t="n">
-        <v>1063.776437885085</v>
+        <v>1507.107777810847</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1741.048401476413</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.6338422747126</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C37" t="n">
-        <v>613.6976593468057</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="D37" t="n">
-        <v>463.58101993447</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="E37" t="n">
-        <v>315.6679263520768</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F37" t="n">
-        <v>168.7779788541665</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7093,52 +7093,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946051</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782255</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.41249933569</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074621</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>2246.242309074621</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.166095389347</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V37" t="n">
-        <v>1702.48160718346</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.0644371465</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.074886248482</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.2823071049523</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160684</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7248,28 +7248,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612961</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J39" t="n">
-        <v>94.88738072612961</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K39" t="n">
-        <v>425.3961232894883</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="L39" t="n">
-        <v>689.55324463298</v>
+        <v>142.6767696327819</v>
       </c>
       <c r="M39" t="n">
-        <v>1281.571598885108</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N39" t="n">
-        <v>1903.667562284444</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>897.9446874942879</v>
+        <v>715.8882940911329</v>
       </c>
       <c r="C40" t="n">
-        <v>763.271631206229</v>
+        <v>546.952111163226</v>
       </c>
       <c r="D40" t="n">
-        <v>613.1549917938933</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E40" t="n">
-        <v>465.2418982115001</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>318.3519507135898</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>2361.553154294196</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>2072.476940608923</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V40" t="n">
-        <v>1817.792452403036</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W40" t="n">
-        <v>1528.375282366075</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X40" t="n">
-        <v>1300.385731468058</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y40" t="n">
-        <v>1079.593152324528</v>
+        <v>897.5367589213727</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127621</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160677</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7485,28 +7485,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>573.0441050413344</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L42" t="n">
-        <v>1063.776437885086</v>
+        <v>526.9340838249478</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.794792137213</v>
+        <v>1118.952438077076</v>
       </c>
       <c r="N42" t="n">
-        <v>2098.90263203578</v>
+        <v>1741.048401476413</v>
       </c>
       <c r="O42" t="n">
-        <v>2098.90263203578</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P42" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q42" t="n">
         <v>2518.486150461856</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>965.8040325357866</v>
+        <v>809.6361984155942</v>
       </c>
       <c r="C43" t="n">
-        <v>796.8678496078797</v>
+        <v>640.7000154876873</v>
       </c>
       <c r="D43" t="n">
-        <v>697.7383010189012</v>
+        <v>490.5833760753516</v>
       </c>
       <c r="E43" t="n">
-        <v>549.8252074365081</v>
+        <v>490.5833760753516</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>2429.412499335695</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U43" t="n">
-        <v>2140.336285650421</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.651797444534</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W43" t="n">
-        <v>1596.234627407574</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.245076509556</v>
+        <v>991.2846632458339</v>
       </c>
       <c r="Y43" t="n">
-        <v>1147.452497366026</v>
+        <v>991.2846632458339</v>
       </c>
     </row>
     <row r="44">
@@ -7640,40 +7640,40 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
+        <v>93.84834815160683</v>
+      </c>
+      <c r="I44" t="n">
         <v>93.84834815160704</v>
       </c>
-      <c r="I44" t="n">
-        <v>93.84834815160639</v>
-      </c>
       <c r="J44" t="n">
-        <v>373.3442236507179</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074383977</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.49438794417</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234025</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151129</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610264</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.75143429761</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7701,61 +7701,61 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>94.88738072612931</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5353624779744</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>573.0441050413318</v>
+        <v>573.0441050413353</v>
       </c>
       <c r="L45" t="n">
-        <v>1063.776437885081</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="M45" t="n">
-        <v>1063.776437885081</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="N45" t="n">
-        <v>1321.464883050345</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O45" t="n">
-        <v>1868.341358050537</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P45" t="n">
-        <v>2287.924876476611</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q45" t="n">
-        <v>2518.486150461857</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
         <v>2016.877442379908</v>
@@ -7767,7 +7767,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.876178449477</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.5769285337228</v>
+        <v>728.028458899664</v>
       </c>
       <c r="C46" t="n">
-        <v>680.6407456058159</v>
+        <v>559.0922759717571</v>
       </c>
       <c r="D46" t="n">
-        <v>530.5241061934802</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E46" t="n">
-        <v>382.6110126110871</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F46" t="n">
-        <v>235.7210651131767</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
         <v>93.84834815160704</v>
@@ -7804,52 +7804,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2313.18539533363</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.18539533363</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>2024.109181648357</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.42469344247</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1480.00752340551</v>
+        <v>1358.459053771451</v>
       </c>
       <c r="X46" t="n">
-        <v>1252.017972507492</v>
+        <v>1130.469502873434</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.225393363962</v>
+        <v>909.6769237299037</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142018</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627893</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>51.31264782908374</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>51.31264782908363</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>51.31264782908363</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.31264782908272</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782908374</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>51.31264782908352</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782908374</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782908218</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31264782908261</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782909125</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782909034</v>
+        <v>51.31264782908272</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>51.31264782911194</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>85.66217691410472</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9168279323306</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.959938823520304</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3016600672215</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440895</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.9236696772406</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440895</v>
@@ -23938,10 +23938,10 @@
         <v>67.18075159108344</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.5052245859292</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.7831817683382</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>69.8379357089747</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.7253379853852</v>
       </c>
       <c r="G25" t="n">
-        <v>91.36171848162675</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440895</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>145.1611721583216</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>210.4824116583046</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>120.0731090731086</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>143.3016600672213</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3.857279934187289</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4171615007164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.88696578547714</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>91.36171848163306</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>33.92049537344954</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>12.01876316044564</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>50.47721991512361</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>92.81042528121665</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>66.27365539642325</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>230.6034165125405</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858691</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>584845.1584109556</v>
+        <v>584845.1584109553</v>
       </c>
       <c r="F2" t="n">
         <v>584845.1584109555</v>
@@ -26332,28 +26332,28 @@
         <v>584845.1584109551</v>
       </c>
       <c r="I2" t="n">
+        <v>584845.1584109557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>584845.1584109551</v>
+      </c>
+      <c r="K2" t="n">
         <v>584845.1584109556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>584845.1584109553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>584845.1584109552</v>
       </c>
       <c r="L2" t="n">
         <v>584845.1584109553</v>
       </c>
       <c r="M2" t="n">
+        <v>584845.1584109552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>584845.1584109552</v>
+      </c>
+      <c r="O2" t="n">
         <v>584845.1584109553</v>
       </c>
-      <c r="N2" t="n">
-        <v>584845.158410955</v>
-      </c>
-      <c r="O2" t="n">
-        <v>584845.1584109555</v>
-      </c>
       <c r="P2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901361</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.208688100062621e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
+        <v>5781.971894855003</v>
+      </c>
+      <c r="F4" t="n">
         <v>5781.971894854996</v>
       </c>
-      <c r="F4" t="n">
-        <v>5781.971894855014</v>
-      </c>
       <c r="G4" t="n">
+        <v>5781.971894855</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5781.971894854997</v>
+      </c>
+      <c r="I4" t="n">
         <v>5781.971894855013</v>
       </c>
-      <c r="H4" t="n">
-        <v>5781.971894855001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5781.971894855015</v>
-      </c>
       <c r="J4" t="n">
-        <v>5781.971894855015</v>
+        <v>5781.971894854993</v>
       </c>
       <c r="K4" t="n">
+        <v>5781.971894854996</v>
+      </c>
+      <c r="L4" t="n">
         <v>5781.971894854999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>5781.971894855018</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5781.971894855032</v>
+      </c>
+      <c r="O4" t="n">
         <v>5781.971894855002</v>
       </c>
-      <c r="M4" t="n">
-        <v>5781.97189485512</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5781.971894855118</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5781.971894855141</v>
-      </c>
       <c r="P4" t="n">
-        <v>5781.971894855408</v>
+        <v>5781.971894855018</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
@@ -26500,16 +26500,16 @@
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278636.1800540807</v>
+        <v>-278636.1800540808</v>
       </c>
       <c r="C6" t="n">
         <v>311331.699160464</v>
       </c>
       <c r="D6" t="n">
-        <v>311331.6991604642</v>
+        <v>311331.699160464</v>
       </c>
       <c r="E6" t="n">
-        <v>-458376.5183956516</v>
+        <v>-458412.4153775162</v>
       </c>
       <c r="F6" t="n">
-        <v>478133.1470588619</v>
+        <v>478097.2500769976</v>
       </c>
       <c r="G6" t="n">
-        <v>478133.147058862</v>
+        <v>478097.2500769977</v>
       </c>
       <c r="H6" t="n">
-        <v>478133.1470588615</v>
+        <v>478097.2500769972</v>
       </c>
       <c r="I6" t="n">
-        <v>478133.147058862</v>
+        <v>478097.2500769978</v>
       </c>
       <c r="J6" t="n">
-        <v>301709.9278662687</v>
+        <v>301674.0308844044</v>
       </c>
       <c r="K6" t="n">
-        <v>478133.1470588616</v>
+        <v>478097.2500769977</v>
       </c>
       <c r="L6" t="n">
-        <v>478133.1470588617</v>
+        <v>478097.2500769974</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.9356687255</v>
+        <v>353790.0386868601</v>
       </c>
       <c r="N6" t="n">
-        <v>478133.1470588613</v>
+        <v>478097.2500769973</v>
       </c>
       <c r="O6" t="n">
-        <v>478133.1470588617</v>
+        <v>478097.2500769974</v>
       </c>
       <c r="P6" t="n">
-        <v>478133.1470588643</v>
+        <v>478097.2500769972</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716387</v>
@@ -26768,16 +26768,16 @@
         <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993006</v>
+        <v>980.2973844993007</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.737154146183353e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.320099833421409e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.9261882223424</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>34.49384454932118</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.08019533676975</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.7549849815598</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>107.5829646831825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.3132597717981</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241437</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>242.9833393878108</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913666</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.450898743215172e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.677937203841219e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-2.443332518818138e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,40 +31282,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,40 +31519,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>406.4292827273596</v>
+        <v>576.0147188438548</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504309</v>
@@ -31853,16 +31853,16 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P12" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286956</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862166</v>
@@ -32072,10 +32072,10 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>471.688653684823</v>
@@ -32084,22 +32084,22 @@
         <v>634.2436048745732</v>
       </c>
       <c r="M15" t="n">
-        <v>596.0688496389762</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927647</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>534.7612713910598</v>
       </c>
       <c r="P15" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862166</v>
@@ -32309,13 +32309,13 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K18" t="n">
-        <v>471.688653684823</v>
+        <v>326.5756039203151</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745732</v>
@@ -32327,10 +32327,10 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O18" t="n">
-        <v>571.4938338238205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,10 +32546,10 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>471.688653684823</v>
@@ -32558,19 +32558,19 @@
         <v>634.2436048745732</v>
       </c>
       <c r="M21" t="n">
-        <v>402.4253926747956</v>
+        <v>580.9464465519226</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O21" t="n">
         <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>181.3625385436715</v>
@@ -32783,16 +32783,16 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>139.4267020936783</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>208.1912969579018</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504309</v>
@@ -32801,7 +32801,7 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>557.796143198246</v>
@@ -33023,16 +33023,16 @@
         <v>100.5719078530532</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>151.1434552068858</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>197.86736744928</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927647</v>
@@ -33041,7 +33041,7 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>372.8719498286956</v>
@@ -33257,19 +33257,19 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745732</v>
+        <v>576.0147188438548</v>
       </c>
       <c r="M30" t="n">
-        <v>197.86736744928</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927647</v>
@@ -33503,22 +33503,22 @@
         <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>713.1456940863127</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>422.5979166842656</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
         <v>181.3625385436715</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>427.3161054158222</v>
+        <v>367.6453723515824</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>405.3797548743102</v>
+        <v>186.8264897865935</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>242.1675041333909</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>578.9253887485525</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530528</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>471.688653684821</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745706</v>
+        <v>266.155202617919</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>391.6330708361248</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982436</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436708</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,16 +34936,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530451</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380633</v>
       </c>
       <c r="L11" t="n">
-        <v>677.0902038955239</v>
+        <v>677.090203895523</v>
       </c>
       <c r="M11" t="n">
         <v>728.2874363020592</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>267.8749029474855</v>
+        <v>437.4603390639807</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284126</v>
@@ -35501,16 +35501,16 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>418.8847129209164</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606339</v>
       </c>
       <c r="P13" t="n">
         <v>293.4650856931362</v>
@@ -35653,13 +35653,13 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M14" t="n">
-        <v>779.6000841311428</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N14" t="n">
         <v>744.732300926371</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P14" t="n">
         <v>553.8443926134837</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>333.847214710464</v>
@@ -35732,22 +35732,22 @@
         <v>495.689225094699</v>
       </c>
       <c r="M15" t="n">
-        <v>453.9348157169579</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094314</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>392.1650269466153</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M17" t="n">
-        <v>779.6000841311428</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O17" t="n">
         <v>689.7596327870094</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K18" t="n">
-        <v>333.847214710464</v>
+        <v>188.7341649459561</v>
       </c>
       <c r="L18" t="n">
         <v>495.689225094699</v>
@@ -35975,10 +35975,10 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O18" t="n">
-        <v>428.897589379376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
-        <v>779.6000841311419</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
         <v>744.732300926371</v>
@@ -36136,7 +36136,7 @@
         <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q20" t="n">
         <v>367.2547334404118</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>333.847214710464</v>
@@ -36206,19 +36206,19 @@
         <v>495.689225094699</v>
       </c>
       <c r="M21" t="n">
-        <v>260.2913587527773</v>
+        <v>438.8124126299043</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O21" t="n">
         <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>35.68303457970759</v>
@@ -36361,13 +36361,13 @@
         <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955239</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
         <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554545</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870094</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>12.58907542701165</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>70.34985798354279</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284126</v>
@@ -36449,7 +36449,7 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839158</v>
@@ -36598,7 +36598,7 @@
         <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
-        <v>677.0902038955239</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
         <v>728.2874363020592</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136667</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>1.04952785305322</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>12.58907542701164</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>55.73333352726165</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094314</v>
@@ -36689,7 +36689,7 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>232.8901757426741</v>
@@ -36841,10 +36841,10 @@
         <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>796.0449487554536</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P29" t="n">
         <v>553.8443926134837</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.689225094699</v>
+        <v>437.4603390639807</v>
       </c>
       <c r="M30" t="n">
-        <v>55.73333352726165</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094314</v>
@@ -37069,7 +37069,7 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
         <v>625.7775560664402</v>
@@ -37078,7 +37078,7 @@
         <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O32" t="n">
         <v>689.7596327870094</v>
@@ -37151,22 +37151,22 @@
         <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>581.8039820029794</v>
       </c>
       <c r="O33" t="n">
         <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>288.6235092699354</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
         <v>35.68303457970759</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>605.157040442574</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>295.9743933324889</v>
+        <v>236.3036602682491</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606322</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053107</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>266.825375094436</v>
+        <v>48.27211000671936</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311486</v>
+        <v>779.6000841311419</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>103.6131243535167</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5836766652191</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>779.6000841311671</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853052794</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>333.847214710462</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946964</v>
+        <v>127.6008228380448</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>260.2913587527915</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970686</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
